--- a/biology/Zoologie/Cordylus_macropholis/Cordylus_macropholis.xlsx
+++ b/biology/Zoologie/Cordylus_macropholis/Cordylus_macropholis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordylus macropholis est une espèce de sauriens de la famille des Cordylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordylus macropholis est une espèce de sauriens de la famille des Cordylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1]. Elle se rencontre de Yzerfontein au Cap-Occidental à Kleinzee au Cap-du-Nord.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle se rencontre de Yzerfontein au Cap-Occidental à Kleinzee au Cap-du-Nord.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boulenger, 1910 : A revised list of the South African reptiles and batrachians, with synoptic tables, special reference to the specimens in the South African Museum, and descriptions of new species. Annals of the South African Museum, vol. 5, p. 455-538 (texte intégral).</t>
         </is>
